--- a/data/trans_orig/P55$nadie-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55$nadie-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08FC152-6ED9-4147-8ADC-5E09FD202746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B294FB6-5AAB-4D92-88EC-5D81F883E37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B066059E-49D7-4596-9ECC-783C794E3788}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9FEBCF4C-8F12-4A31-8B0A-FFA1C004CE78}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2884" uniqueCount="313">
-  <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3288" uniqueCount="767">
+  <si>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -62,7 +62,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nadie</t>
@@ -98,19 +98,412 @@
     <t>Otro</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>5,08%</t>
@@ -224,9 +617,6 @@
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>4,46%</t>
   </si>
   <si>
@@ -239,9 +629,6 @@
     <t>5,03%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
     <t>3,99%</t>
   </si>
   <si>
@@ -260,15 +647,9 @@
     <t>16,56%</t>
   </si>
   <si>
-    <t>27,69%</t>
-  </si>
-  <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
     <t>22,51%</t>
   </si>
   <si>
@@ -296,9 +677,6 @@
     <t>5,09%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,43%</t>
   </si>
   <si>
@@ -335,7 +713,361 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2012</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>4,3%</t>
@@ -350,9 +1082,6 @@
     <t>2,28%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
     <t>4,71%</t>
   </si>
   <si>
@@ -392,9 +1121,6 @@
     <t>28,1%</t>
   </si>
   <si>
-    <t>18,32%</t>
-  </si>
-  <si>
     <t>12,08%</t>
   </si>
   <si>
@@ -446,9 +1172,6 @@
     <t>3,02%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
     <t>9,24%</t>
   </si>
   <si>
@@ -464,9 +1187,6 @@
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>13,78%</t>
   </si>
   <si>
@@ -479,9 +1199,6 @@
     <t>16,91%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
     <t>21,52%</t>
   </si>
   <si>
@@ -524,15 +1241,9 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,68%</t>
-  </si>
-  <si>
     <t>3,4%</t>
   </si>
   <si>
@@ -548,15 +1259,345 @@
     <t>2,37%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2016</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
     <t>8,29%</t>
   </si>
   <si>
@@ -566,9 +1607,6 @@
     <t>12,65%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
     <t>4,0%</t>
   </si>
   <si>
@@ -650,12 +1688,6 @@
     <t>33,03%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
@@ -665,15 +1697,9 @@
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>14,51%</t>
-  </si>
-  <si>
     <t>9,13%</t>
   </si>
   <si>
@@ -698,12 +1724,6 @@
     <t>19,76%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
     <t>9,63%</t>
   </si>
   <si>
@@ -728,9 +1748,6 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
@@ -749,235 +1766,580 @@
     <t>2,38%</t>
   </si>
   <si>
-    <t>Población según quíen le ayuda cuando tiene dificultades en las actividades instrumentales en 2023</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>Población según quién le ayuda cuando tiene dificultades en las actividades instrumentales (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>0,19%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +2751,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E127C6-2E3E-41BD-AA90-E5BA8243490A}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A07697-EAAC-47F2-A320-08D7954A5EF5}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3290,10 +4652,10 @@
         <v>66</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -3302,31 +4664,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -3335,7 +4697,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="D60" s="7" t="s">
         <v>61</v>
@@ -3347,19 +4709,19 @@
         <v>79</v>
       </c>
       <c r="G60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="I60" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="K60" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -3371,28 +4733,28 @@
         <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="I61" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -3404,28 +4766,28 @@
         <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="I62" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -3437,63 +4799,63 @@
         <v>61</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="I63" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -3502,31 +4864,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -3535,31 +4897,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -3568,31 +4930,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -3601,31 +4963,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -3634,31 +4996,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -3667,31 +5029,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -3703,28 +5065,28 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -3736,28 +5098,28 @@
         <v>61</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -3769,42 +5131,375 @@
         <v>61</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3817,8 +5512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836293BE-2543-4DF9-B4F7-D34097269A80}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75394015-8487-4AEB-B566-4B013999B1FB}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3834,7 +5529,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5565,31 +7260,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>100</v>
+        <v>226</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>101</v>
+        <v>227</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>105</v>
+        <v>230</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -5598,31 +7293,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>115</v>
+        <v>240</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -5631,31 +7326,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>124</v>
+        <v>248</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>125</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -5664,31 +7359,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>127</v>
+        <v>251</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>120</v>
+        <v>256</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>133</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -5697,31 +7392,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>134</v>
+        <v>259</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -5730,31 +7425,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -5763,31 +7458,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>151</v>
+        <v>271</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>154</v>
+        <v>273</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>155</v>
+        <v>274</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>156</v>
+        <v>275</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>157</v>
+        <v>276</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -5799,28 +7494,28 @@
         <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -5832,28 +7527,28 @@
         <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>162</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -5862,66 +7557,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J63" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="K63" s="7" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>101</v>
+        <v>285</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>102</v>
+        <v>286</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>105</v>
+        <v>288</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>106</v>
+        <v>289</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -5930,31 +7625,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>110</v>
+        <v>293</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>111</v>
+        <v>294</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>116</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -5963,31 +7658,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>117</v>
+        <v>300</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>119</v>
+        <v>302</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>125</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -5996,31 +7691,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>127</v>
+        <v>308</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>130</v>
+        <v>311</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>120</v>
+        <v>313</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>133</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -6029,31 +7724,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>140</v>
+        <v>315</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -6062,31 +7757,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>146</v>
+        <v>324</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>148</v>
+        <v>326</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>150</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -6095,31 +7790,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>153</v>
+        <v>330</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>155</v>
+        <v>332</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>158</v>
+        <v>335</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>159</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -6131,28 +7826,28 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>160</v>
+        <v>337</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>162</v>
+        <v>339</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -6164,28 +7859,28 @@
         <v>61</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>160</v>
+        <v>337</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>162</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -6194,45 +7889,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>166</v>
+        <v>341</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>168</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6245,8 +8273,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9856D1-B8C1-428A-A330-C6BA623E3166}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E1990A-CE14-4653-B014-5D77A167763D}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6262,7 +8290,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7993,31 +10021,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>170</v>
+        <v>407</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>176</v>
+        <v>411</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>177</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -8026,31 +10054,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>178</v>
+        <v>413</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>179</v>
+        <v>414</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>180</v>
+        <v>415</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>182</v>
+        <v>363</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>183</v>
+        <v>417</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>184</v>
+        <v>418</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>186</v>
+        <v>420</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -8059,31 +10087,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>187</v>
+        <v>422</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>188</v>
+        <v>423</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>189</v>
+        <v>425</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>190</v>
+        <v>426</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>191</v>
+        <v>427</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>192</v>
+        <v>428</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>193</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -8092,31 +10120,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>194</v>
+        <v>430</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>195</v>
+        <v>431</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>196</v>
+        <v>432</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>197</v>
+        <v>433</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>199</v>
+        <v>435</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>200</v>
+        <v>308</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>201</v>
+        <v>436</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -8125,31 +10153,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>203</v>
+        <v>61</v>
       </c>
       <c r="D58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H58" s="7" t="s">
-        <v>207</v>
+        <v>440</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>208</v>
+        <v>139</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -8158,31 +10186,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>213</v>
+        <v>443</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>214</v>
+        <v>444</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>216</v>
+        <v>446</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>217</v>
+        <v>447</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>218</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -8191,31 +10219,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>219</v>
+        <v>380</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>220</v>
+        <v>61</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>221</v>
+        <v>449</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>223</v>
+        <v>61</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>224</v>
+        <v>451</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>225</v>
+        <v>452</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>227</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -8227,28 +10255,28 @@
         <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>60</v>
+        <v>438</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H61" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="J61" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>229</v>
+        <v>456</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -8260,28 +10288,28 @@
         <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>60</v>
+        <v>438</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>96</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -8290,66 +10318,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="G63" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I63" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>233</v>
-      </c>
       <c r="J63" s="7" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>235</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>172</v>
+        <v>458</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>173</v>
+        <v>459</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>174</v>
+        <v>460</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>175</v>
+        <v>461</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>176</v>
+        <v>462</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>177</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -8358,31 +10386,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>178</v>
+        <v>464</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>179</v>
+        <v>465</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>180</v>
+        <v>466</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>181</v>
+        <v>467</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>182</v>
+        <v>468</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>183</v>
+        <v>469</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>184</v>
+        <v>470</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>185</v>
+        <v>471</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -8391,31 +10419,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>38</v>
+        <v>472</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>188</v>
+        <v>474</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>130</v>
+        <v>475</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>189</v>
+        <v>476</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>190</v>
+        <v>477</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>191</v>
+        <v>478</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>192</v>
+        <v>479</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>193</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -8424,31 +10452,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>194</v>
+        <v>481</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>195</v>
+        <v>482</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>196</v>
+        <v>483</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>197</v>
+        <v>484</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>198</v>
+        <v>485</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>201</v>
+        <v>488</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>202</v>
+        <v>489</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -8457,31 +10485,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>203</v>
+        <v>490</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E68" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="H68" s="7" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>209</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -8490,31 +10518,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>210</v>
+        <v>494</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>211</v>
+        <v>495</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>212</v>
+        <v>496</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>214</v>
+        <v>497</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>216</v>
+        <v>499</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>217</v>
+        <v>500</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>218</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -8523,31 +10551,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>219</v>
+        <v>316</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>220</v>
+        <v>502</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>222</v>
+        <v>504</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>224</v>
+        <v>505</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>225</v>
+        <v>506</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>226</v>
+        <v>507</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>227</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -8559,28 +10587,28 @@
         <v>61</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>60</v>
+        <v>509</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>228</v>
+        <v>510</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>138</v>
+        <v>511</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>229</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -8592,28 +10620,28 @@
         <v>61</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>60</v>
+        <v>509</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>95</v>
+        <v>513</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>96</v>
+        <v>402</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -8622,45 +10650,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>206</v>
+        <v>514</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>233</v>
+        <v>515</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>234</v>
+        <v>516</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>235</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -8673,8 +11034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE85CAE-2CFE-41EF-BDB6-FF6659ED1629}">
-  <dimension ref="A1:K74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B406392-E940-4124-A48A-552C7FC60FD6}">
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -8690,7 +11051,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>575</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10421,31 +12782,31 @@
         <v>8</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>237</v>
+        <v>492</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>238</v>
+        <v>576</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>240</v>
+        <v>577</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>105</v>
+        <v>578</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>241</v>
+        <v>579</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>242</v>
+        <v>580</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>243</v>
+        <v>581</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>244</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -10454,31 +12815,31 @@
         <v>10</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>245</v>
+        <v>583</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>246</v>
+        <v>584</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>247</v>
+        <v>585</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>249</v>
+        <v>586</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>250</v>
+        <v>484</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>251</v>
+        <v>587</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>252</v>
+        <v>588</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>253</v>
+        <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -10487,31 +12848,31 @@
         <v>11</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>254</v>
+        <v>590</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>255</v>
+        <v>591</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>256</v>
+        <v>592</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>257</v>
+        <v>593</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>258</v>
+        <v>594</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>259</v>
+        <v>595</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>260</v>
+        <v>596</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>261</v>
+        <v>597</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>262</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -10520,31 +12881,31 @@
         <v>12</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>263</v>
+        <v>599</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>264</v>
+        <v>600</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>265</v>
+        <v>601</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>266</v>
+        <v>602</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>267</v>
+        <v>603</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>268</v>
+        <v>604</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>269</v>
+        <v>605</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>270</v>
+        <v>606</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>271</v>
+        <v>607</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -10553,31 +12914,31 @@
         <v>13</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>219</v>
+        <v>608</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>272</v>
+        <v>609</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>273</v>
+        <v>610</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>274</v>
+        <v>46</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>275</v>
+        <v>611</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>277</v>
+        <v>612</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>223</v>
+        <v>613</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>278</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -10586,31 +12947,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>279</v>
+        <v>615</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>280</v>
+        <v>616</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>281</v>
+        <v>617</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>282</v>
+        <v>618</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>283</v>
+        <v>619</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>284</v>
+        <v>479</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>285</v>
+        <v>620</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>286</v>
+        <v>621</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>287</v>
+        <v>622</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -10619,31 +12980,31 @@
         <v>15</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>117</v>
+        <v>623</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>288</v>
+        <v>624</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>289</v>
+        <v>625</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>290</v>
+        <v>626</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>291</v>
+        <v>627</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>292</v>
+        <v>628</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>293</v>
+        <v>629</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>294</v>
+        <v>630</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>295</v>
+        <v>631</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -10652,31 +13013,31 @@
         <v>16</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="D61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="H61" s="7" t="s">
-        <v>300</v>
+        <v>634</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>301</v>
+        <v>61</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>83</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -10685,31 +13046,31 @@
         <v>17</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>302</v>
+        <v>61</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>299</v>
-      </c>
       <c r="G62" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="I62" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H62" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>301</v>
-      </c>
       <c r="J62" s="7" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>305</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -10718,66 +13079,66 @@
         <v>18</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>306</v>
+        <v>515</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>307</v>
+        <v>61</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>308</v>
+        <v>623</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>638</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>309</v>
+        <v>639</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>310</v>
+        <v>640</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>312</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>237</v>
+        <v>642</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>239</v>
+        <v>643</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>240</v>
+        <v>644</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>241</v>
+        <v>645</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>242</v>
+        <v>646</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>243</v>
+        <v>647</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>244</v>
+        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -10786,31 +13147,31 @@
         <v>10</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>245</v>
+        <v>649</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>246</v>
+        <v>650</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>247</v>
+        <v>651</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>248</v>
+        <v>131</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>249</v>
+        <v>652</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>250</v>
+        <v>653</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>251</v>
+        <v>654</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>252</v>
+        <v>436</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>253</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -10819,31 +13180,31 @@
         <v>11</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>254</v>
+        <v>656</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>255</v>
+        <v>657</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>256</v>
+        <v>658</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>257</v>
+        <v>659</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>258</v>
+        <v>660</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>259</v>
+        <v>661</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>260</v>
+        <v>662</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>261</v>
+        <v>663</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>262</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -10852,31 +13213,31 @@
         <v>12</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>263</v>
+        <v>665</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>264</v>
+        <v>666</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>265</v>
+        <v>667</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>266</v>
+        <v>668</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>267</v>
+        <v>669</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>268</v>
+        <v>670</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>269</v>
+        <v>671</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>270</v>
+        <v>672</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>271</v>
+        <v>673</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -10885,31 +13246,31 @@
         <v>13</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>219</v>
+        <v>674</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>272</v>
+        <v>675</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>273</v>
+        <v>676</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>274</v>
+        <v>677</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>276</v>
+        <v>678</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>277</v>
+        <v>679</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>223</v>
+        <v>85</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>278</v>
+        <v>680</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -10918,31 +13279,31 @@
         <v>14</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>279</v>
+        <v>681</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>280</v>
+        <v>682</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>281</v>
+        <v>547</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>282</v>
+        <v>560</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>283</v>
+        <v>683</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>284</v>
+        <v>684</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>286</v>
+        <v>555</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>287</v>
+        <v>685</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -10951,31 +13312,31 @@
         <v>15</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>117</v>
+        <v>686</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>288</v>
+        <v>687</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>290</v>
+        <v>688</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>291</v>
+        <v>689</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>292</v>
+        <v>690</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>293</v>
+        <v>691</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>294</v>
+        <v>692</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>295</v>
+        <v>693</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -10984,31 +13345,31 @@
         <v>16</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>298</v>
+        <v>694</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>299</v>
+        <v>695</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>301</v>
+        <v>696</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>83</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -11017,31 +13378,31 @@
         <v>17</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>302</v>
+        <v>698</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>303</v>
+        <v>699</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>299</v>
+        <v>700</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="J72" s="7" t="s">
         <v>61</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>305</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -11050,45 +13411,378 @@
         <v>18</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>306</v>
+        <v>514</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>307</v>
+        <v>61</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>308</v>
+        <v>701</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>89</v>
+        <v>702</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>61</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>309</v>
+        <v>703</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>310</v>
+        <v>704</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>311</v>
+        <v>61</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>312</v>
+        <v>513</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>97</v>
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="J76" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="K79" s="7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="K80" s="7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K82" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A64:A73"/>
+    <mergeCell ref="A74:A83"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
